--- a/@ELTOROIT/Sample Data/FIFA Data/F1F4 Data Dictionary With Harmonization.xlsx
+++ b/@ELTOROIT/Sample Data/FIFA Data/F1F4 Data Dictionary With Harmonization.xlsx
@@ -7,8 +7,9 @@
     <sheet state="visible" name="Source Systems" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Source Fields CRM" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Source Fields GCS" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Mappings CRM" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Mappings GCS" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Custom DLOs" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Mappings CRM" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Mappings GCS" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="348">
   <si>
     <t>#</t>
   </si>
@@ -121,7 +122,9 @@
     <t>Hourly, full refresh</t>
   </si>
   <si>
-    <t>gs://f1f4-bucket/WebsiteData/ Sales/Fans.csv</t>
+    <t>- gs://f1f4-bucket/WebsiteData/
+- Sales/
+- Fans.csv</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT fanid__c, firstname__c, lastname__c, email1__c, email2__c FROM Fans__dll </t>
@@ -136,7 +139,9 @@
     <t>ProdId</t>
   </si>
   <si>
-    <t>gs://f1f4-bucket/WebsiteData/ Sales/Products.csv</t>
+    <t>- gs://f1f4-bucket/WebsiteData/
+- Sales/
+- Products.csv</t>
   </si>
   <si>
     <t>SELECT prodid__c, category__c, description__c, cost__c, onsale__c, price__c, profitdiscount__c FROM Products__dll</t>
@@ -151,7 +156,9 @@
     <t>Date Ordered</t>
   </si>
   <si>
-    <t>gs://f1f4-bucket/WebsiteData/ Sales/SalesTransactions.csv</t>
+    <t>- gs://f1f4-bucket/WebsiteData/
+- Sales/
+- SalesTransactions.csv</t>
   </si>
   <si>
     <t>SELECT SalesTransactionsPK__c, orderid__c, prodid__c, dateordered__c, fanid__c, quantity__c, unitcost__c, unitprice__c FROM SalesTransactions__dll</t>
@@ -178,13 +185,13 @@
     <t>Manual Import</t>
   </si>
   <si>
-    <t>Account ID</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
     <t>ID (15/18)</t>
+  </si>
+  <si>
+    <t>Account ID</t>
   </si>
   <si>
     <t>Id__c</t>
@@ -194,6 +201,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Account Phone</t>
+  </si>
+  <si>
+    <t>Phone__c</t>
   </si>
   <si>
     <t>Birthdate</t>
@@ -283,61 +299,73 @@
     <t>PersonMailingPostalCode__c</t>
   </si>
   <si>
-    <t>Account Phone</t>
+    <t>Birthdate__c</t>
   </si>
   <si>
-    <t>Phone</t>
+    <t>Email__c</t>
   </si>
   <si>
-    <t>Phone__c</t>
+    <t>FanId__c</t>
   </si>
   <si>
-    <t>Birthdate__c</t>
+    <t>FanId_c__c</t>
+  </si>
+  <si>
+    <t>Permission Set</t>
+  </si>
+  <si>
+    <t>GenderIdentity</t>
+  </si>
+  <si>
+    <t>Picklist</t>
+  </si>
+  <si>
+    <t>Gender Identity</t>
+  </si>
+  <si>
+    <t>GenderIdentity__c</t>
+  </si>
+  <si>
+    <t>Contact ID</t>
+  </si>
+  <si>
+    <t>MailingCity</t>
+  </si>
+  <si>
+    <t>MailingCity__c</t>
+  </si>
+  <si>
+    <t>MailingCountry</t>
+  </si>
+  <si>
+    <t>MailingCountry__c</t>
+  </si>
+  <si>
+    <t>MailingPostalCode</t>
+  </si>
+  <si>
+    <t>MailingPostalCode__c</t>
+  </si>
+  <si>
+    <t>MailingState</t>
+  </si>
+  <si>
+    <t>MailingState__c</t>
+  </si>
+  <si>
+    <t>MailingStreet</t>
+  </si>
+  <si>
+    <t>MailingStreet__c</t>
   </si>
   <si>
     <t>Business Phone</t>
   </si>
   <si>
-    <t>Contact ID</t>
-  </si>
-  <si>
-    <t>Email__c</t>
-  </si>
-  <si>
-    <t>FanId_c__c</t>
-  </si>
-  <si>
-    <t>Gender Identity</t>
-  </si>
-  <si>
-    <t>Picklist</t>
-  </si>
-  <si>
-    <t>GenderIdentity__c</t>
-  </si>
-  <si>
-    <t>Permission Set</t>
-  </si>
-  <si>
-    <t>MailingCity__c</t>
-  </si>
-  <si>
-    <t>MailingCountry__c</t>
-  </si>
-  <si>
-    <t>MailingState__c</t>
-  </si>
-  <si>
-    <t>MailingStreet__c</t>
-  </si>
-  <si>
-    <t>MailingPostalCode__c</t>
+    <t>Formula</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Formula</t>
   </si>
   <si>
     <t>Identification Name</t>
@@ -361,7 +389,64 @@
     <t>Case</t>
   </si>
   <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>Case Number</t>
+  </si>
+  <si>
+    <t>CaseNumber__c</t>
+  </si>
+  <si>
+    <t>ClosedDate</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>Closed Date</t>
+  </si>
+  <si>
+    <t>ClosedDate__c</t>
+  </si>
+  <si>
+    <t>ContactId</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>ContactId__c</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>CreatedDate__c</t>
+  </si>
+  <si>
+    <t>CSAT__c</t>
+  </si>
+  <si>
+    <t>Number(1, 0)</t>
+  </si>
+  <si>
+    <t>CSAT</t>
+  </si>
+  <si>
+    <t>CSAT_c__c</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>Case ID</t>
+  </si>
+  <si>
+    <t>Origin</t>
   </si>
   <si>
     <t>Case Origin</t>
@@ -370,52 +455,19 @@
     <t>Origin__c</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Priority__c</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
     <t>Case Reason</t>
   </si>
   <si>
     <t>Reason__c</t>
-  </si>
-  <si>
-    <t>Closed Date</t>
-  </si>
-  <si>
-    <t>Date/Time</t>
-  </si>
-  <si>
-    <t>ClosedDate__c</t>
-  </si>
-  <si>
-    <t>Lookup</t>
-  </si>
-  <si>
-    <t>ContactId__c</t>
-  </si>
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>CreatedDate__c</t>
-  </si>
-  <si>
-    <t>CSAT</t>
-  </si>
-  <si>
-    <t>Number(1, 0)</t>
-  </si>
-  <si>
-    <t>CSAT_c__c</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Priority__c</t>
   </si>
   <si>
     <t>Status</t>
@@ -490,6 +542,9 @@
     <t>profitdiscount__c</t>
   </si>
   <si>
+    <t>SalesTransactions</t>
+  </si>
+  <si>
     <t>DateOrdered</t>
   </si>
   <si>
@@ -526,13 +581,43 @@
     <t>unitprice__c</t>
   </si>
   <si>
-    <t>SalesTransactionsPK</t>
+    <t>SalesTransactionPK</t>
   </si>
   <si>
-    <t>SalesTransactionsPK__c</t>
+    <t>SalesTransactionPK__c</t>
   </si>
   <si>
     <t>sourceField['OrderID']+"_"+sourceField['ProdId']</t>
+  </si>
+  <si>
+    <t>Data Transform</t>
+  </si>
+  <si>
+    <t>FanId Case</t>
+  </si>
+  <si>
+    <t>Populate DLO: FanId Case</t>
+  </si>
+  <si>
+    <t>Identification Number</t>
+  </si>
+  <si>
+    <t>Fan Emails</t>
+  </si>
+  <si>
+    <t>Populate DLO: Fan Emails</t>
+  </si>
+  <si>
+    <t>Fan ID</t>
+  </si>
+  <si>
+    <t>Sales Orders</t>
+  </si>
+  <si>
+    <t>Populate DLO: Sales Orders</t>
+  </si>
+  <si>
+    <t>Order ID</t>
   </si>
   <si>
     <t>Count Before</t>
@@ -556,10 +641,13 @@
     <t>Manual?</t>
   </si>
   <si>
-    <t>21/34</t>
+    <t>21/24</t>
   </si>
   <si>
     <t>0/0</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Delete</t>
@@ -568,10 +656,10 @@
     <t>Delete All Mappings (Person Accounts)</t>
   </si>
   <si>
-    <t>29/67</t>
+    <t>29/37</t>
   </si>
   <si>
-    <t>28/67</t>
+    <t>25/37</t>
   </si>
   <si>
     <t>Review Mappings | Account Contact</t>
@@ -580,10 +668,10 @@
     <t>Account Contact</t>
   </si>
   <si>
-    <t>Keep</t>
+    <t>Account Contact Id (PK)</t>
   </si>
   <si>
-    <t>Account Contact Id (PK)</t>
+    <t>Keep</t>
   </si>
   <si>
     <t>Assistant's Name</t>
@@ -772,9 +860,6 @@
     <t>A required field used to specify the name of the identification. New formula field: "FAN ID". Automatically mapped because same name</t>
   </si>
   <si>
-    <t>Identification Number</t>
-  </si>
-  <si>
     <t>The value of the identification, for example, driver license B1234456. Also used in identity resolution.</t>
   </si>
   <si>
@@ -787,10 +872,10 @@
     <t>A reference ID to the additional information about a party used for greater organization. New formula field: "F1F4"</t>
   </si>
   <si>
-    <t>19/47</t>
+    <t>19/29</t>
   </si>
   <si>
-    <t>16/47</t>
+    <t>18/29</t>
   </si>
   <si>
     <t>Review Mappings | Case</t>
@@ -818,9 +903,6 @@
   </si>
   <si>
     <t>A unique ID used as the primary key for the account contact DMO.</t>
-  </si>
-  <si>
-    <t>Case Number</t>
   </si>
   <si>
     <t>A number assigned to the case.</t>
@@ -856,13 +938,16 @@
     <t>The date the record was created.</t>
   </si>
   <si>
-    <t>CSAT (Custom)</t>
+    <t>CSAT (Custom Number)</t>
   </si>
   <si>
     <t>New custom field</t>
   </si>
   <si>
     <t>The case description.</t>
+  </si>
+  <si>
+    <t>Activate relationship to Individual</t>
   </si>
   <si>
     <t>The date when a user last modified the record.</t>
@@ -883,28 +968,19 @@
     <t>Custom DLO</t>
   </si>
   <si>
-    <t>Case FanId</t>
-  </si>
-  <si>
     <t>10/11</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>8/12</t>
-  </si>
-  <si>
-    <t>Fan Emails</t>
+    <t>10/12</t>
   </si>
   <si>
     <t>8/9</t>
   </si>
   <si>
-    <t>FanId (PK)</t>
-  </si>
-  <si>
-    <t>Sales Order</t>
+    <t>PK (PK)</t>
   </si>
   <si>
     <t>7/9</t>
@@ -914,6 +990,9 @@
   </si>
   <si>
     <t>DateTime (ENG)</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
   </si>
   <si>
     <t>Purchase Order Date</t>
@@ -928,7 +1007,10 @@
     <t>Sold To Customer</t>
   </si>
   <si>
-    <t>12/15</t>
+    <t>Create relationship to Individual DMO</t>
+  </si>
+  <si>
+    <t>11/14</t>
   </si>
   <si>
     <t>Review Mappings | Sales Order Product</t>
@@ -970,7 +1052,7 @@
     <t>ProdId (PK)</t>
   </si>
   <si>
-    <t>Goods Product ID</t>
+    <t>Goods Product ID (PK)</t>
   </si>
   <si>
     <t>Minimum Advertisement Amount</t>
@@ -995,7 +1077,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1025,6 +1107,22 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10.0"/>
       <color rgb="FF181818"/>
       <name val="Arial"/>
@@ -1039,7 +1137,12 @@
       <name val="-apple-system"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF181818"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1050,23 +1153,6 @@
     <font>
       <color rgb="FFFF0000"/>
       <name val="-apple-system"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10.0"/>
-      <color rgb="FF181818"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -1095,14 +1181,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
@@ -1112,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1165,17 +1251,37 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -1183,8 +1289,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1197,13 +1306,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1215,37 +1330,44 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1257,14 +1379,8 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -1302,6 +1418,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1774,8 +1894,8 @@
     <col customWidth="1" min="5" max="5" width="17.75"/>
     <col customWidth="1" min="6" max="6" width="13.5"/>
     <col customWidth="1" min="7" max="7" width="10.38"/>
-    <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="41.0"/>
+    <col customWidth="1" min="8" max="8" width="24.88"/>
+    <col customWidth="1" min="9" max="9" width="70.25"/>
     <col customWidth="1" min="10" max="10" width="8.38"/>
     <col customWidth="1" min="11" max="27" width="6.88"/>
   </cols>
@@ -2265,16 +2385,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>56</v>
@@ -2285,6 +2405,7 @@
       <c r="J2" s="17" t="s">
         <v>58</v>
       </c>
+      <c r="K2" s="18"/>
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -2304,27 +2425,34 @@
       <c r="AB2" s="16"/>
     </row>
     <row r="3">
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>61</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="K3" s="16"/>
       <c r="L3" s="15"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="17"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
@@ -2336,26 +2464,26 @@
       <c r="AB3" s="16"/>
     </row>
     <row r="4">
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="16"/>
+      <c r="J4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="17"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -2375,24 +2503,24 @@
       <c r="AB4" s="16"/>
     </row>
     <row r="5">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="15"/>
@@ -2414,24 +2542,24 @@
       <c r="AB5" s="16"/>
     </row>
     <row r="6">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>63</v>
+      <c r="J6" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="15"/>
@@ -2453,24 +2581,24 @@
       <c r="AB6" s="16"/>
     </row>
     <row r="7">
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>63</v>
+      <c r="J7" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="15"/>
@@ -2492,24 +2620,24 @@
       <c r="AB7" s="16"/>
     </row>
     <row r="8">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>63</v>
+      <c r="J8" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="15"/>
@@ -2531,24 +2659,24 @@
       <c r="AB8" s="16"/>
     </row>
     <row r="9">
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>63</v>
+      <c r="J9" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="15"/>
@@ -2570,24 +2698,24 @@
       <c r="AB9" s="16"/>
     </row>
     <row r="10">
-      <c r="D10" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>63</v>
+      <c r="J10" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="15"/>
@@ -2609,24 +2737,24 @@
       <c r="AB10" s="16"/>
     </row>
     <row r="11">
-      <c r="D11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="D11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>63</v>
+      <c r="J11" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="15"/>
@@ -2648,24 +2776,24 @@
       <c r="AB11" s="16"/>
     </row>
     <row r="12">
-      <c r="D12" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>63</v>
+      <c r="J12" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="15"/>
@@ -2687,24 +2815,24 @@
       <c r="AB12" s="16"/>
     </row>
     <row r="13">
-      <c r="D13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>58</v>
+      <c r="J13" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="15"/>
@@ -2818,20 +2946,20 @@
         <v>18</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="18" t="s">
-        <v>60</v>
+      <c r="F16" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>58</v>
@@ -2857,17 +2985,17 @@
     </row>
     <row r="17">
       <c r="D17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>57</v>
@@ -2898,25 +3026,25 @@
       <c r="D18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="17" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -2937,17 +3065,17 @@
     </row>
     <row r="19">
       <c r="D19" s="17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="18" t="s">
-        <v>64</v>
+      <c r="F19" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>57</v>
@@ -2976,25 +3104,27 @@
     </row>
     <row r="20">
       <c r="D20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="17" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
@@ -3015,17 +3145,19 @@
     </row>
     <row r="21">
       <c r="D21" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="17" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>57</v>
@@ -3054,27 +3186,25 @@
     </row>
     <row r="22">
       <c r="D22" s="17" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="17" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>99</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
@@ -3095,17 +3225,17 @@
     </row>
     <row r="23">
       <c r="D23" s="17" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="17" t="s">
-        <v>74</v>
+      <c r="F23" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>57</v>
@@ -3134,17 +3264,17 @@
     </row>
     <row r="24">
       <c r="D24" s="17" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="18" t="s">
-        <v>78</v>
+      <c r="F24" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>57</v>
@@ -3173,17 +3303,17 @@
     </row>
     <row r="25">
       <c r="D25" s="17" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="18" t="s">
-        <v>78</v>
+      <c r="F25" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>57</v>
@@ -3212,17 +3342,17 @@
     </row>
     <row r="26">
       <c r="D26" s="17" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="18" t="s">
-        <v>78</v>
+      <c r="F26" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>57</v>
@@ -3251,17 +3381,17 @@
     </row>
     <row r="27">
       <c r="D27" s="17" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="18" t="s">
-        <v>78</v>
+      <c r="F27" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>57</v>
@@ -3290,17 +3420,17 @@
     </row>
     <row r="28">
       <c r="D28" s="17" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="18" t="s">
-        <v>78</v>
+      <c r="F28" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>57</v>
@@ -3328,38 +3458,36 @@
       <c r="AB28" s="16"/>
     </row>
     <row r="29">
-      <c r="D29" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
@@ -3371,31 +3499,29 @@
       <c r="AB29" s="16"/>
     </row>
     <row r="30">
-      <c r="D30" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="L30" s="27"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
@@ -3500,25 +3626,23 @@
         <v>16</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="D33" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>57</v>
@@ -3526,7 +3650,7 @@
       <c r="J33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
@@ -3546,21 +3670,21 @@
       <c r="AB33" s="16"/>
     </row>
     <row r="34">
-      <c r="D34" s="18" t="s">
-        <v>115</v>
+      <c r="D34" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="17" t="s">
-        <v>97</v>
+      <c r="F34" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>58</v>
@@ -3585,27 +3709,27 @@
       <c r="AB34" s="16"/>
     </row>
     <row r="35">
-      <c r="D35" s="17" t="s">
-        <v>117</v>
+      <c r="D35" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="17" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -3624,26 +3748,28 @@
       <c r="AB35" s="16"/>
     </row>
     <row r="36">
-      <c r="D36" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18" t="s">
-        <v>120</v>
+      <c r="D36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
@@ -3663,26 +3789,28 @@
       <c r="AB36" s="16"/>
     </row>
     <row r="37">
-      <c r="D37" s="18" t="s">
-        <v>93</v>
+      <c r="D37" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="17" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
@@ -3702,28 +3830,28 @@
       <c r="AB37" s="16"/>
     </row>
     <row r="38">
-      <c r="D38" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>120</v>
+      <c r="D38" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
@@ -3743,30 +3871,30 @@
       <c r="AB38" s="16"/>
     </row>
     <row r="39">
-      <c r="D39" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="16"/>
+      <c r="D39" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="17" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -3784,28 +3912,26 @@
       <c r="AB39" s="16"/>
     </row>
     <row r="40">
-      <c r="D40" s="18" t="s">
-        <v>66</v>
+      <c r="D40" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="17" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>99</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K40" s="16"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="16"/>
@@ -3825,18 +3951,18 @@
       <c r="AB40" s="16"/>
     </row>
     <row r="41">
-      <c r="D41" s="18" t="s">
-        <v>131</v>
+      <c r="D41" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="17" t="s">
         <v>97</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>57</v>
@@ -3865,23 +3991,23 @@
     </row>
     <row r="42">
       <c r="D42" s="17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K42" s="16"/>
       <c r="L42" s="15"/>
@@ -3903,18 +4029,18 @@
       <c r="AB42" s="16"/>
     </row>
     <row r="43">
-      <c r="D43" s="18" t="s">
-        <v>135</v>
+      <c r="D43" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>57</v>
@@ -3942,32 +4068,28 @@
       <c r="AB43" s="16"/>
     </row>
     <row r="44">
-      <c r="D44" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>106</v>
-      </c>
+      <c r="D44" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="16"/>
       <c r="F44" s="17" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -3985,29 +4107,27 @@
       <c r="AB44" s="16"/>
     </row>
     <row r="45">
-      <c r="D45" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>57</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -4028,17 +4148,28 @@
       <c r="AB45" s="16"/>
     </row>
     <row r="46">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
@@ -4087,17 +4218,47 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
     </row>
+    <row r="48">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B33:B45"/>
-    <mergeCell ref="C33:C45"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="C33:C46"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A16:A30"/>
     <mergeCell ref="B16:B30"/>
     <mergeCell ref="C16:C30"/>
-    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="A33:A46"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4157,23 +4318,23 @@
       <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
@@ -4185,293 +4346,289 @@
       <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
     </row>
     <row r="3">
-      <c r="D3" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
     </row>
     <row r="4">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
     </row>
     <row r="5">
-      <c r="D5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
     </row>
     <row r="6">
-      <c r="D6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23" t="s">
+      <c r="D6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="J6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
     </row>
     <row r="7">
-      <c r="D7" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+      <c r="J7" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8">
-      <c r="D8" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="J8" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -4504,23 +4661,23 @@
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
@@ -4532,283 +4689,283 @@
       <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
     </row>
     <row r="12">
-      <c r="D12" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
+      <c r="D12" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
     </row>
     <row r="13">
-      <c r="D13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="26" t="s">
+      <c r="D13" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="G13" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
     </row>
     <row r="14">
-      <c r="D14" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
+      <c r="D14" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
     </row>
     <row r="15">
-      <c r="D15" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
+      <c r="D15" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
     </row>
     <row r="16">
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
     </row>
     <row r="17">
-      <c r="D17" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
+      <c r="D17" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
     </row>
     <row r="18">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
@@ -4841,372 +4998,370 @@
       <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="26" t="s">
+      <c r="I21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="24" t="s">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="24" t="s">
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="22" t="s">
+      <c r="G23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="26" t="s">
+      <c r="H23" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="24" t="s">
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
+      <c r="J27" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
     </row>
     <row r="28">
-      <c r="C28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
+      <c r="C28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
     </row>
     <row r="29">
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5234,6 +5389,685 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="10.75"/>
+    <col customWidth="1" min="2" max="2" width="10.5"/>
+    <col customWidth="1" min="3" max="3" width="22.13"/>
+    <col customWidth="1" min="4" max="4" width="18.75"/>
+    <col customWidth="1" min="5" max="5" width="8.13"/>
+    <col customWidth="1" min="6" max="6" width="5.63"/>
+    <col customWidth="1" min="7" max="7" width="18.75"/>
+    <col customWidth="1" min="8" max="27" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C9:C11"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="13.13"/>
     <col customWidth="1" min="2" max="2" width="9.63"/>
     <col customWidth="1" min="3" max="3" width="11.5"/>
@@ -5251,38 +6085,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>176</v>
+        <v>199</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="3"/>
-      <c r="L1" s="36"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -5307,31 +6141,31 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>182</v>
+        <v>206</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>209</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="36"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -5378,34 +6212,34 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>176</v>
+        <v>199</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J4" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="3"/>
@@ -5434,17 +6268,17 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="39"/>
+        <v>211</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" s="51"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="36"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -5462,24 +6296,24 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6">
-      <c r="E6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>58</v>
+      <c r="H6" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="36"/>
+      <c r="L6" s="47"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -5497,19 +6331,19 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7">
-      <c r="E7" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I7" s="41" t="s">
+      <c r="E7" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="52" t="s">
         <v>58</v>
       </c>
       <c r="J7" s="6"/>
@@ -5532,20 +6366,20 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8">
-      <c r="E8" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>63</v>
+      <c r="E8" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="3"/>
@@ -5567,20 +6401,20 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9">
-      <c r="E9" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>63</v>
+      <c r="E9" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="3"/>
@@ -5602,23 +6436,23 @@
       <c r="AA9" s="3"/>
     </row>
     <row r="10">
-      <c r="E10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="E10" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -5639,23 +6473,23 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11">
-      <c r="E11" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I11" s="40" t="s">
+      <c r="E11" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -5676,19 +6510,19 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12">
-      <c r="E12" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="40" t="s">
+      <c r="E12" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="6"/>
@@ -5711,20 +6545,20 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13">
-      <c r="E13" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>63</v>
+      <c r="E13" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="3"/>
@@ -5746,23 +6580,23 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14">
-      <c r="E14" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="40" t="s">
+      <c r="E14" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -5783,19 +6617,19 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15">
-      <c r="E15" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" s="40" t="s">
+      <c r="E15" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J15" s="6"/>
@@ -5818,19 +6652,19 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16">
-      <c r="E16" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="40" t="s">
+      <c r="E16" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J16" s="6"/>
@@ -5853,23 +6687,23 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17">
-      <c r="E17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I17" s="40" t="s">
+      <c r="E17" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -5890,20 +6724,20 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18">
-      <c r="E18" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>63</v>
+      <c r="E18" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="3"/>
@@ -5925,10 +6759,10 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19">
-      <c r="E19" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="39"/>
+      <c r="E19" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="J19" s="51"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -5948,19 +6782,19 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20">
-      <c r="E20" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I20" s="40" t="s">
+      <c r="E20" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="6"/>
@@ -5983,19 +6817,19 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21">
-      <c r="E21" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I21" s="40" t="s">
+      <c r="E21" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="6"/>
@@ -6018,19 +6852,19 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22">
-      <c r="E22" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I22" s="40" t="s">
+      <c r="E22" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J22" s="6"/>
@@ -6053,19 +6887,19 @@
       <c r="AA22" s="3"/>
     </row>
     <row r="23">
-      <c r="E23" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I23" s="40" t="s">
+      <c r="E23" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J23" s="6"/>
@@ -6088,19 +6922,19 @@
       <c r="AA23" s="3"/>
     </row>
     <row r="24">
-      <c r="E24" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I24" s="40" t="s">
+      <c r="E24" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J24" s="6"/>
@@ -6123,19 +6957,19 @@
       <c r="AA24" s="3"/>
     </row>
     <row r="25">
-      <c r="E25" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="40" t="s">
+      <c r="E25" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J25" s="6"/>
@@ -6158,19 +6992,19 @@
       <c r="AA25" s="3"/>
     </row>
     <row r="26">
-      <c r="E26" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="40" t="s">
+      <c r="E26" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J26" s="6"/>
@@ -6193,20 +7027,20 @@
       <c r="AA26" s="3"/>
     </row>
     <row r="27">
-      <c r="E27" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>63</v>
+      <c r="E27" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="3"/>
@@ -6228,19 +7062,19 @@
       <c r="AA27" s="3"/>
     </row>
     <row r="28">
-      <c r="E28" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="40" t="s">
+      <c r="E28" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J28" s="6"/>
@@ -6264,19 +7098,19 @@
     </row>
     <row r="29">
       <c r="E29" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>63</v>
+        <v>98</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="3"/>
@@ -6298,10 +7132,10 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30">
-      <c r="E30" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="J30" s="39"/>
+      <c r="E30" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" s="51"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -6321,23 +7155,23 @@
       <c r="AA30" s="3"/>
     </row>
     <row r="31">
-      <c r="E31" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="40" t="s">
+      <c r="E31" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -6358,23 +7192,23 @@
       <c r="AA31" s="3"/>
     </row>
     <row r="32">
-      <c r="E32" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="40" t="s">
+      <c r="E32" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -6395,20 +7229,20 @@
       <c r="AA32" s="3"/>
     </row>
     <row r="33">
-      <c r="E33" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>63</v>
+      <c r="E33" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="3"/>
@@ -6430,20 +7264,20 @@
       <c r="AA33" s="3"/>
     </row>
     <row r="34">
-      <c r="E34" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>63</v>
+      <c r="E34" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="3"/>
@@ -6465,23 +7299,23 @@
       <c r="AA34" s="3"/>
     </row>
     <row r="35">
-      <c r="E35" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="40" t="s">
+      <c r="E35" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="G35" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -6502,10 +7336,10 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36">
-      <c r="E36" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="J36" s="39"/>
+      <c r="E36" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="51"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -6525,23 +7359,23 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37">
-      <c r="E37" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I37" s="40" t="s">
+      <c r="E37" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -6562,21 +7396,23 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38">
-      <c r="E38" s="40"/>
-      <c r="F38" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>58</v>
+      <c r="E38" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -6597,23 +7433,23 @@
       <c r="AA38" s="3"/>
     </row>
     <row r="39">
-      <c r="E39" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>63</v>
+      <c r="E39" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -6634,20 +7470,23 @@
       <c r="AA39" s="3"/>
     </row>
     <row r="40">
-      <c r="F40" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" s="40" t="s">
+      <c r="E40" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -6668,10 +7507,10 @@
       <c r="AA40" s="3"/>
     </row>
     <row r="41">
-      <c r="E41" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="J41" s="39"/>
+      <c r="E41" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="J41" s="51"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -6691,23 +7530,23 @@
       <c r="AA41" s="3"/>
     </row>
     <row r="42">
-      <c r="E42" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I42" s="40" t="s">
+      <c r="E42" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -6728,23 +7567,23 @@
       <c r="AA42" s="3"/>
     </row>
     <row r="43">
-      <c r="E43" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I43" s="40" t="s">
+      <c r="E43" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -6765,23 +7604,23 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44">
-      <c r="E44" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I44" s="40" t="s">
+      <c r="E44" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -6802,23 +7641,23 @@
       <c r="AA44" s="3"/>
     </row>
     <row r="45">
-      <c r="E45" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="40" t="s">
+      <c r="E45" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -6839,23 +7678,23 @@
       <c r="AA45" s="3"/>
     </row>
     <row r="46">
-      <c r="E46" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" s="40" t="s">
+      <c r="E46" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -6876,23 +7715,23 @@
       <c r="AA46" s="3"/>
     </row>
     <row r="47">
-      <c r="E47" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" s="40" t="s">
+      <c r="E47" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -6913,23 +7752,23 @@
       <c r="AA47" s="3"/>
     </row>
     <row r="48">
-      <c r="E48" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="40" t="s">
+      <c r="E48" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -6950,10 +7789,10 @@
       <c r="AA48" s="3"/>
     </row>
     <row r="49">
-      <c r="E49" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="J49" s="39"/>
+      <c r="E49" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="J49" s="51"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -6973,20 +7812,20 @@
       <c r="AA49" s="3"/>
     </row>
     <row r="50">
-      <c r="E50" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>63</v>
+      <c r="E50" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="3"/>
@@ -7008,23 +7847,23 @@
       <c r="AA50" s="3"/>
     </row>
     <row r="51">
-      <c r="E51" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I51" s="40" t="s">
+      <c r="E51" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -7045,23 +7884,23 @@
       <c r="AA51" s="3"/>
     </row>
     <row r="52">
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="I52" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="J52" s="5" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -7082,20 +7921,20 @@
       <c r="AA52" s="3"/>
     </row>
     <row r="53">
-      <c r="E53" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G53" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I53" s="40" t="s">
-        <v>63</v>
+      <c r="E53" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="3"/>
@@ -7117,23 +7956,23 @@
       <c r="AA53" s="3"/>
     </row>
     <row r="54">
-      <c r="E54" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>58</v>
+      <c r="E54" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="I54" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -7154,23 +7993,23 @@
       <c r="AA54" s="3"/>
     </row>
     <row r="55">
-      <c r="E55" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>58</v>
+      <c r="E55" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -7191,23 +8030,23 @@
       <c r="AA55" s="3"/>
     </row>
     <row r="56">
-      <c r="E56" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I56" s="40" t="s">
+      <c r="E56" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -7257,34 +8096,34 @@
       <c r="AA57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>176</v>
+        <v>199</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J58" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K58" s="3"/>
@@ -7310,18 +8149,18 @@
         <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J59" s="39"/>
+        <v>282</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="J59" s="51"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -7341,23 +8180,23 @@
       <c r="AA59" s="3"/>
     </row>
     <row r="60">
-      <c r="E60" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="40" t="s">
+      <c r="E60" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>63</v>
+      <c r="H60" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I60" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -7378,23 +8217,23 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61">
-      <c r="E61" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I61" s="40" t="s">
+      <c r="E61" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="H61" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I61" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -7415,23 +8254,23 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62">
-      <c r="E62" s="44" t="s">
-        <v>117</v>
+      <c r="E62" s="58" t="s">
+        <v>146</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G62" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="G62" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -7452,23 +8291,23 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63">
-      <c r="E63" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I63" s="40" t="s">
+      <c r="E63" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -7489,23 +8328,23 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64">
-      <c r="E64" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I64" s="40" t="s">
+      <c r="E64" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="H64" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I64" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -7526,23 +8365,23 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65">
-      <c r="E65" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G65" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I65" s="40" t="s">
+      <c r="E65" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I65" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -7563,23 +8402,23 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66">
-      <c r="E66" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I66" s="40" t="s">
+      <c r="E66" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I66" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -7600,23 +8439,23 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67">
-      <c r="E67" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I67" s="40" t="s">
+      <c r="E67" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G67" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="H67" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I67" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -7637,23 +8476,23 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68">
-      <c r="E68" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="F68" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>63</v>
+      <c r="E68" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -7674,23 +8513,23 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69">
-      <c r="E69" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I69" s="40" t="s">
+      <c r="E69" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I69" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -7711,23 +8550,23 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70">
-      <c r="E70" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I70" s="40" t="s">
+      <c r="E70" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G70" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="48" t="s">
         <v>58</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -7748,23 +8587,23 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71">
-      <c r="E71" s="44" t="s">
-        <v>127</v>
+      <c r="E71" s="58" t="s">
+        <v>136</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G71" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -7785,23 +8624,23 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72">
-      <c r="E72" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="H72" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="I72" s="40" t="s">
-        <v>63</v>
+      <c r="E72" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="H72" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I72" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -7822,23 +8661,23 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73">
-      <c r="E73" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I73" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>282</v>
+      <c r="E73" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="H73" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="I73" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J73" s="50" t="s">
+        <v>307</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -7859,23 +8698,23 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74">
-      <c r="E74" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I74" s="40" t="s">
-        <v>63</v>
+      <c r="E74" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H74" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I74" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -7896,23 +8735,23 @@
       <c r="AA74" s="3"/>
     </row>
     <row r="75">
-      <c r="E75" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I75" s="40" t="s">
-        <v>58</v>
+      <c r="E75" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="H75" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I75" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -7933,16 +8772,24 @@
       <c r="AA75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="6"/>
+      <c r="E76" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -7954,44 +8801,24 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I77" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J77" s="35" t="s">
-        <v>13</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -8011,20 +8838,35 @@
       <c r="AA77" s="11"/>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>248</v>
+      <c r="A78" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I78" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J78" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -8045,22 +8887,21 @@
       <c r="AA78" s="11"/>
     </row>
     <row r="79">
-      <c r="E79" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G79" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I79" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J79" s="48"/>
+      <c r="A79" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>275</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -8080,22 +8921,22 @@
       <c r="AA79" s="11"/>
     </row>
     <row r="80">
-      <c r="E80" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G80" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="H80" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I80" s="40" t="s">
+      <c r="E80" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G80" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I80" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J80" s="48"/>
+      <c r="J80" s="62"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -8115,22 +8956,22 @@
       <c r="AA80" s="11"/>
     </row>
     <row r="81">
-      <c r="E81" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J81" s="48"/>
+      <c r="E81" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G81" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I81" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J81" s="62"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -8150,22 +8991,22 @@
       <c r="AA81" s="11"/>
     </row>
     <row r="82">
-      <c r="E82" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J82" s="48"/>
+      <c r="E82" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G82" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="I82" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" s="62"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -8185,22 +9026,22 @@
       <c r="AA82" s="11"/>
     </row>
     <row r="83">
-      <c r="E83" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G83" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I83" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J83" s="48"/>
+      <c r="E83" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G83" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="62"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -8220,16 +9061,22 @@
       <c r="AA83" s="11"/>
     </row>
     <row r="84">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="E84" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G84" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="I84" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J84" s="62"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -8277,35 +9124,63 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
     </row>
+    <row r="86">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A5:A56"/>
     <mergeCell ref="B5:B56"/>
     <mergeCell ref="C5:C56"/>
     <mergeCell ref="D5:D56"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="E59:I59"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="A59:A75"/>
-    <mergeCell ref="B59:B75"/>
-    <mergeCell ref="C59:C75"/>
-    <mergeCell ref="D59:D75"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="A5:A56"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="C59:C76"/>
+    <mergeCell ref="D59:D76"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8319,14 +9194,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.5"/>
-    <col customWidth="1" min="2" max="2" width="9.88"/>
+    <col customWidth="1" min="2" max="2" width="14.63"/>
     <col customWidth="1" min="3" max="3" width="11.5"/>
     <col customWidth="1" min="4" max="4" width="10.13"/>
     <col customWidth="1" min="5" max="5" width="30.63"/>
     <col customWidth="1" min="6" max="6" width="13.38"/>
     <col customWidth="1" min="7" max="7" width="16.13"/>
     <col customWidth="1" min="8" max="8" width="25.13"/>
-    <col customWidth="1" min="9" max="9" width="6.75"/>
+    <col customWidth="1" min="9" max="9" width="28.75"/>
     <col customWidth="1" min="10" max="10" width="11.13"/>
     <col customWidth="1" min="11" max="11" width="8.13"/>
     <col customWidth="1" min="12" max="12" width="12.38"/>
@@ -8334,31 +9209,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>174</v>
+        <v>199</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="3"/>
@@ -8387,15 +9262,15 @@
         <v>31</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="D2" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="51"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -8415,19 +9290,19 @@
       <c r="Z2" s="15"/>
     </row>
     <row r="3">
-      <c r="E3" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="E3" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="20"/>
+      <c r="G3" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="26"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -8447,19 +9322,19 @@
       <c r="Z3" s="15"/>
     </row>
     <row r="4">
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I4" s="20"/>
+      <c r="G4" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="26"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -8479,19 +9354,19 @@
       <c r="Z4" s="15"/>
     </row>
     <row r="5">
-      <c r="E5" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="20"/>
+      <c r="G5" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="26"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -8511,10 +9386,10 @@
       <c r="Z5" s="15"/>
     </row>
     <row r="6">
-      <c r="E6" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="I6" s="39"/>
+      <c r="E6" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="51"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -8534,17 +9409,17 @@
       <c r="Z6" s="15"/>
     </row>
     <row r="7">
-      <c r="E7" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="50" t="s">
+      <c r="E7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>107</v>
+      <c r="G7" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -8566,17 +9441,17 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8">
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>251</v>
+      <c r="G8" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -8598,17 +9473,17 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9">
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>224</v>
+      <c r="G9" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -8630,17 +9505,17 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10">
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>253</v>
+      <c r="G10" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -8662,17 +9537,17 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11">
-      <c r="E11" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="E11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>110</v>
+      <c r="G11" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -8694,10 +9569,10 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12">
-      <c r="E12" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" s="39"/>
+      <c r="E12" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" s="51"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -8717,17 +9592,17 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13">
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>216</v>
+      <c r="G13" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>243</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -8749,17 +9624,17 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14">
-      <c r="E14" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="50" t="s">
+      <c r="E14" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>218</v>
+      <c r="G14" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>245</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -8781,17 +9656,17 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15">
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>224</v>
+      <c r="G15" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -8841,29 +9716,29 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="44" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="15"/>
@@ -8886,21 +9761,21 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" s="39"/>
+        <v>206</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" s="51"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -8920,17 +9795,17 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19">
-      <c r="E19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="E19" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>216</v>
+      <c r="G19" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>243</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -8952,17 +9827,17 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20">
-      <c r="E20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="50" t="s">
+      <c r="E20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>218</v>
+      <c r="G20" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>245</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -8984,17 +9859,17 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21">
-      <c r="E21" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>224</v>
+      <c r="G21" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -9044,29 +9919,29 @@
       <c r="Z22" s="15"/>
     </row>
     <row r="23">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="44" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="15"/>
@@ -9089,21 +9964,21 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="I24" s="39"/>
+        <v>206</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" s="51"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -9124,16 +9999,16 @@
     </row>
     <row r="25">
       <c r="E25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>299</v>
+        <v>173</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>323</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -9156,16 +10031,16 @@
     </row>
     <row r="26">
       <c r="E26" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>301</v>
+      <c r="G26" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>325</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
@@ -9190,16 +10065,18 @@
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="I27" s="15"/>
+      <c r="G27" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>327</v>
+      </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -9247,29 +10124,29 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="44" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="15"/>
@@ -9291,22 +10168,22 @@
       <c r="Z29" s="15"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>295</v>
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="I30" s="39"/>
+        <v>206</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="I30" s="51"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -9326,20 +10203,20 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31">
-      <c r="E31" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>306</v>
+      <c r="E31" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -9361,16 +10238,16 @@
     </row>
     <row r="32">
       <c r="E32" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>124</v>
+        <v>173</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -9395,14 +10272,14 @@
       <c r="E33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>307</v>
+      <c r="G33" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -9425,16 +10302,16 @@
     </row>
     <row r="34">
       <c r="E34" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>308</v>
+        <v>179</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>333</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -9457,16 +10334,16 @@
     </row>
     <row r="35">
       <c r="E35" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>295</v>
+      <c r="G35" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>322</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -9489,16 +10366,16 @@
     </row>
     <row r="36">
       <c r="E36" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F36" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>310</v>
+      <c r="G36" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>335</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -9520,17 +10397,17 @@
       <c r="Z36" s="15"/>
     </row>
     <row r="37">
-      <c r="E37" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>311</v>
+      <c r="E37" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>336</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
@@ -9580,29 +10457,29 @@
       <c r="Z38" s="15"/>
     </row>
     <row r="39">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="I39" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" s="44" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="15"/>
@@ -9624,22 +10501,22 @@
       <c r="Z39" s="15"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>287</v>
+      <c r="A40" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="I40" s="39"/>
+        <v>206</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="I40" s="51"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -9659,20 +10536,20 @@
       <c r="Z40" s="15"/>
     </row>
     <row r="41">
-      <c r="E41" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>306</v>
+      <c r="E41" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -9693,17 +10570,17 @@
       <c r="Z41" s="15"/>
     </row>
     <row r="42">
-      <c r="E42" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="F42" s="20" t="s">
+      <c r="E42" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>317</v>
+      <c r="G42" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -9725,17 +10602,17 @@
       <c r="Z42" s="15"/>
     </row>
     <row r="43">
-      <c r="E43" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>318</v>
+      <c r="E43" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>343</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -9757,17 +10634,17 @@
       <c r="Z43" s="15"/>
     </row>
     <row r="44">
-      <c r="E44" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>319</v>
+      <c r="E44" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>344</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -9792,14 +10669,14 @@
       <c r="E45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>320</v>
+      <c r="G45" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>345</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
@@ -9822,16 +10699,16 @@
     </row>
     <row r="46">
       <c r="E46" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>321</v>
+      <c r="G46" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>346</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
@@ -9853,20 +10730,20 @@
       <c r="Z46" s="15"/>
     </row>
     <row r="47">
-      <c r="E47" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>306</v>
+      <c r="E47" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
@@ -37076,33 +37953,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
     <mergeCell ref="C2:C15"/>
     <mergeCell ref="D2:D15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E30:H30"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="E40:H40"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:B37"/>
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="D30:D37"/>
-    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="D40:D47"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
